--- a/image/paymentreconciliation.xlsx
+++ b/image/paymentreconciliation.xlsx
@@ -995,45 +995,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.22265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.83203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="54.40234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="38.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="54.171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.33203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/paymentreconciliation.xlsx
+++ b/image/paymentreconciliation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="270">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -519,10 +519,6 @@
   </si>
   <si>
     <t>PaymentReconciliation.disposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Disposition message</t>
@@ -995,45 +991,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.22265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.3828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.40234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.83203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="37.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.33203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="54.171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3071,17 +3067,17 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3145,7 +3141,7 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -3159,7 +3155,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3182,17 +3178,17 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3241,7 +3237,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>49</v>
@@ -3270,7 +3266,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3293,17 +3289,17 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3352,7 +3348,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>49</v>
@@ -3381,7 +3377,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3407,16 +3403,16 @@
         <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3465,7 +3461,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3494,7 +3490,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3517,17 +3513,17 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3576,7 +3572,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3588,7 +3584,7 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
@@ -3605,7 +3601,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3628,13 +3624,13 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3685,36 +3681,36 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3743,7 +3739,7 @@
         <v>95</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>97</v>
@@ -3796,7 +3792,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3820,16 +3816,16 @@
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3851,10 +3847,10 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>97</v>
@@ -3909,7 +3905,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3938,7 +3934,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3964,14 +3960,14 @@
         <v>105</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4020,7 +4016,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4049,7 +4045,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4075,14 +4071,14 @@
         <v>105</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4131,7 +4127,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4160,7 +4156,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4183,19 +4179,19 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4220,14 +4216,14 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4244,7 +4240,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>49</v>
@@ -4273,7 +4269,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4296,17 +4292,17 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4355,7 +4351,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4384,7 +4380,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4410,14 +4406,14 @@
         <v>150</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4466,7 +4462,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4495,7 +4491,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4518,17 +4514,17 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4577,7 +4573,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4606,7 +4602,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4629,17 +4625,17 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4688,7 +4684,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4717,7 +4713,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4740,17 +4736,17 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4799,7 +4795,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4828,7 +4824,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4854,14 +4850,14 @@
         <v>150</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4910,7 +4906,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4939,7 +4935,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4962,17 +4958,17 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5021,7 +5017,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5050,7 +5046,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5073,19 +5069,19 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5110,14 +5106,14 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5134,7 +5130,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5163,7 +5159,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5186,17 +5182,17 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5245,7 +5241,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5257,7 +5253,7 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>40</v>
@@ -5274,7 +5270,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5297,13 +5293,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5354,36 +5350,36 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5412,7 +5408,7 @@
         <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>97</v>
@@ -5465,7 +5461,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5489,16 +5485,16 @@
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5520,10 +5516,10 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>97</v>
@@ -5578,7 +5574,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5607,7 +5603,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5633,14 +5629,14 @@
         <v>68</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5668,11 +5664,11 @@
         <v>116</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5689,7 +5685,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5718,7 +5714,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5741,17 +5737,17 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -5800,7 +5796,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5821,7 +5817,7 @@
         <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
